--- a/topo/allVNFList.xlsx
+++ b/topo/allVNFList.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,16 +426,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C26" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D26" ca="1" si="1">RANDBETWEEN(1,50)</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -448,7 +447,7 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H26" ca="1" si="2">RANDBETWEEN(50,99)/100</f>
-        <v>0.57999999999999996</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -456,17 +455,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -478,7 +476,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -486,16 +484,15 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -508,7 +505,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -516,16 +513,15 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -538,7 +534,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -546,16 +542,15 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B26" ca="1" si="3">RANDBETWEEN(1,50)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -568,7 +563,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -576,16 +571,15 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -598,7 +592,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -606,16 +600,15 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -628,7 +621,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -636,16 +629,15 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -658,7 +650,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -666,16 +658,15 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -688,7 +679,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -696,16 +687,15 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -718,7 +708,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -726,16 +716,15 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -748,7 +737,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -756,16 +745,15 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -778,7 +766,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -786,16 +774,15 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -808,7 +795,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -816,16 +803,15 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -838,7 +824,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -846,16 +832,15 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -876,16 +861,15 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -898,7 +882,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -906,16 +890,15 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -928,7 +911,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -936,16 +919,15 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -958,7 +940,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -966,16 +948,15 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -988,7 +969,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56999999999999995</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,16 +977,15 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1018,7 +998,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1026,16 +1006,15 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1048,7 +1027,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1056,16 +1035,15 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1078,7 +1056,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1086,16 +1064,15 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1108,7 +1085,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1116,16 +1093,15 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1138,7 +1114,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1146,16 +1122,15 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1168,7 +1143,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">

--- a/topo/allVNFList.xlsx
+++ b/topo/allVNFList.xlsx
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,11 +430,11 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C26" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D26" ca="1" si="1">RANDBETWEEN(1,50)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -447,7 +447,7 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H26" ca="1" si="2">RANDBETWEEN(50,99)/100</f>
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -459,11 +459,11 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -476,7 +476,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -488,11 +488,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -517,11 +517,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -534,7 +534,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -546,11 +546,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -575,11 +575,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -604,11 +604,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -633,11 +633,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -662,11 +662,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -691,11 +691,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -720,11 +720,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -737,7 +737,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -749,11 +749,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -766,7 +766,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -778,11 +778,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -807,11 +807,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,11 +836,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -865,11 +865,11 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,11 +894,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -923,11 +923,11 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -952,11 +952,11 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,11 +981,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1126,11 +1126,11 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">

--- a/topo/allVNFList.xlsx
+++ b/topo/allVNFList.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,12 +429,12 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C26" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>26</v>
+        <f t="shared" ref="C2:C32" ca="1" si="0">RANDBETWEEN(1,50)</f>
+        <v>23</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D26" ca="1" si="1">RANDBETWEEN(1,50)</f>
-        <v>12</v>
+        <f t="shared" ref="D2:D32" ca="1" si="1">RANDBETWEEN(1,50)</f>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -447,7 +447,7 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H26" ca="1" si="2">RANDBETWEEN(50,99)/100</f>
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -459,11 +459,11 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -476,7 +476,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -488,11 +488,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -517,11 +517,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -534,7 +534,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -546,11 +546,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -575,11 +575,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -633,11 +633,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -662,11 +662,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -691,11 +691,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -720,11 +720,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -737,7 +737,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -749,11 +749,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -766,7 +766,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -778,11 +778,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -807,11 +807,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,11 +836,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -865,11 +865,11 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,11 +894,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -952,11 +952,11 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,11 +981,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1126,11 +1126,11 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1143,12 +1143,137 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
